--- a/SP_Sklad/TempLate/SyringeReport(48).xlsx
+++ b/SP_Sklad/TempLate/SyringeReport(48).xlsx
@@ -10,7 +10,7 @@
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Аркуш1!$A$5:$Q$6</definedName>
+    <definedName name="range1">Аркуш1!$A$5:$R$6</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Часовий зріз виробництва за</t>
   </si>
@@ -41,26 +41,20 @@
   <si>
     <t>Шприци</t>
   </si>
+  <si>
+    <t>Фаршу всього(сума нето техпроцесу фарш на формовку)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,18 +72,50 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -99,190 +125,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -290,61 +168,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,189 +493,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Q6"/>
+  <dimension ref="B2:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="0.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="16" width="9.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="19.5" thickBot="1">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:18" ht="20.25" customHeight="1">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="e">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
       </c>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:17" ht="19.5" thickBot="1">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:18" ht="15.75">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="1" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B4" s="16"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="7">
+    <row r="4" spans="2:18" s="1" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B4" s="13"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="4">
         <v>3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="4">
         <v>4</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="4">
         <v>5</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="4">
         <v>6</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="4">
         <v>7</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="4">
         <v>8</v>
       </c>
-      <c r="O4" s="8">
+      <c r="P4" s="4">
         <v>9</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="2:17" ht="19.5" customHeight="1">
-      <c r="B5" s="24" t="e">
+    <row r="5" spans="2:18" ht="19.5" customHeight="1">
+      <c r="B5" s="5" t="e">
         <f>range1_RecipeName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C5" s="21" t="e">
+      <c r="C5" s="8" t="e">
+        <f>range1_OutNetto</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="6" t="e">
         <f>range1_FormationOnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="22" t="e">
+      <c r="E5" s="7" t="e">
         <f>range1_TaraName</f>
         <v>#NAME?</v>
       </c>
-      <c r="E5" s="23" t="e">
+      <c r="F5" s="6" t="e">
         <f>range1_OsadkaOnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="F5" s="21" t="e">
-        <f>IF(D5="1",E5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G5" s="21" t="e">
-        <f>IF(D5="2",E5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H5" s="21" t="e">
-        <f>IF(D5="3",E5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I5" s="21" t="e">
-        <f>IF(D5="4",E5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J5" s="21" t="e">
-        <f>IF(D5="5",E5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K5" s="21" t="e">
-        <f>IF(D5="6",E5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L5" s="21" t="e">
-        <f>IF(D5="7",E5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M5" s="21" t="e">
-        <f>IF(D5="8",E5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N5" s="21" t="e">
-        <f>IF(D5="9",E5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O5" s="21" t="e">
-        <f>IF(D5="10",E5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P5" s="21" t="e">
-        <f>E5-C5</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q5" s="20"/>
+      <c r="G5" s="6" t="e">
+        <f>IF(E5="0",F5,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H5" s="6" t="e">
+        <f>IF(E5="1",F5,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I5" s="6" t="e">
+        <f>IF(E5="2",F5,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J5" s="6" t="e">
+        <f>IF(E5="3",F5,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K5" s="6" t="e">
+        <f>IF(E5="4",F5,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L5" s="6" t="e">
+        <f>IF(E5="5",F5,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M5" s="6" t="e">
+        <f>IF(E5="6",F5,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" s="6" t="e">
+        <f>IF(E5="7",F5,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O5" s="6" t="e">
+        <f>IF(E5="8",F5,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P5" s="6" t="e">
+        <f>IF(E5="9",F5,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q5" s="6" t="e">
+        <f>IF(D5&gt;0,F5-D5,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="2:17" ht="24" customHeight="1">
-      <c r="B6" s="5"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="5"/>
+    <row r="6" spans="2:18" ht="20.25" customHeight="1">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SP_Sklad/TempLate/SyringeReport(48).xlsx
+++ b/SP_Sklad/TempLate/SyringeReport(48).xlsx
@@ -10,7 +10,8 @@
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Аркуш1!$A$5:$R$6</definedName>
+    <definedName name="MatGroup">Аркуш1!$A$5:$R$8</definedName>
+    <definedName name="range1">Аркуш1!$A$6:$R$7</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -49,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +95,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -115,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -164,11 +174,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -178,9 +225,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -197,6 +241,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,69 +549,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:R6"/>
+  <dimension ref="B2:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="0.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="16" width="9.5703125" customWidth="1"/>
+    <col min="7" max="16" width="8.85546875" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="20.25" customHeight="1">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12" t="e">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="2:18" ht="15.75">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="14" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:18" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B4" s="13"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4">
@@ -588,97 +644,123 @@
       <c r="P4" s="4">
         <v>9</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="13"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="16"/>
     </row>
-    <row r="5" spans="2:18" ht="19.5" customHeight="1">
-      <c r="B5" s="5" t="e">
+    <row r="5" spans="2:18" ht="27" customHeight="1">
+      <c r="B5" s="13" t="e">
+        <f>MatGroup_NAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="2:18" ht="19.5" customHeight="1">
+      <c r="B6" s="12" t="e">
         <f>range1_RecipeName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C5" s="8" t="e">
+      <c r="C6" s="7" t="e">
         <f>range1_OutNetto</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="6" t="e">
+      <c r="D6" s="5" t="e">
         <f>range1_FormationOnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="E5" s="7" t="e">
+      <c r="E6" s="6" t="e">
         <f>range1_TaraName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F5" s="6" t="e">
+      <c r="F6" s="5" t="e">
         <f>range1_OsadkaOnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="G5" s="6" t="e">
-        <f>IF(E5="0",F5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H5" s="6" t="e">
-        <f>IF(E5="1",F5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I5" s="6" t="e">
-        <f>IF(E5="2",F5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J5" s="6" t="e">
-        <f>IF(E5="3",F5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K5" s="6" t="e">
-        <f>IF(E5="4",F5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L5" s="6" t="e">
-        <f>IF(E5="5",F5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M5" s="6" t="e">
-        <f>IF(E5="6",F5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N5" s="6" t="e">
-        <f>IF(E5="7",F5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O5" s="6" t="e">
-        <f>IF(E5="8",F5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P5" s="6" t="e">
-        <f>IF(E5="9",F5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q5" s="6" t="e">
-        <f>IF(D5&gt;0,F5-D5,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R5" s="8"/>
+      <c r="G6" s="5" t="e">
+        <f>IF(E6="0",F6,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="5" t="e">
+        <f>IF(E6="1",F6,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I6" s="5" t="e">
+        <f>IF(E6="2",F6,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J6" s="5" t="e">
+        <f>IF(E6="3",F6,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K6" s="5" t="e">
+        <f>IF(E6="4",F6,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L6" s="5" t="e">
+        <f>IF(E6="5",F6,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M6" s="5" t="e">
+        <f>IF(E6="6",F6,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N6" s="5" t="e">
+        <f>IF(E6="7",F6,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O6" s="5" t="e">
+        <f>IF(E6="8",F6,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P6" s="5" t="e">
+        <f>IF(E6="9",F6,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q6" s="5" t="e">
+        <f>IF(D6&gt;0,F6-D6,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R6" s="7" t="e">
+        <f>range1_TimeNorm</f>
+        <v>#NAME?</v>
+      </c>
     </row>
-    <row r="6" spans="2:18" ht="20.25" customHeight="1">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="9"/>
+    <row r="7" spans="2:18" ht="20.25" customHeight="1">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B5:R5"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="G3:P3"/>
@@ -687,6 +769,6 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SP_Sklad/TempLate/SyringeReport(48).xlsx
+++ b/SP_Sklad/TempLate/SyringeReport(48).xlsx
@@ -1,29 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839C3728-1375-464B-A51C-23447E25028A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Аркуш1!$A$5:$R$8</definedName>
-    <definedName name="range1">Аркуш1!$A$6:$R$7</definedName>
+    <definedName name="MatGroup">Аркуш1!$A$6:$R$9</definedName>
+    <definedName name="range1">Аркуш1!$A$7:$R$8</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Часовий зріз виробництва за</t>
   </si>
@@ -44,13 +76,46 @@
   </si>
   <si>
     <t>Фаршу всього(сума нето техпроцесу фарш на формовку)</t>
+  </si>
+  <si>
+    <t>REX</t>
+  </si>
+  <si>
+    <t>ХАНДМАН 200</t>
+  </si>
+  <si>
+    <t>компо максі 3000</t>
+  </si>
+  <si>
+    <t>ХАНДМАН 300</t>
+  </si>
+  <si>
+    <t>Вемаг</t>
+  </si>
+  <si>
+    <t>Прихід на осадку</t>
+  </si>
+  <si>
+    <t>час осадки</t>
+  </si>
+  <si>
+    <t>прихід на термічку</t>
+  </si>
+  <si>
+    <t>час термічки</t>
+  </si>
+  <si>
+    <t>Прихід на СГП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +169,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +209,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -175,7 +266,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
       <right/>
       <top style="thin">
         <color theme="1" tint="0.499984740745262"/>
@@ -189,13 +282,31 @@
       <left style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
       <right/>
       <top style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -206,8 +317,21 @@
       <top style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -215,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,15 +369,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -264,6 +404,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -541,19 +684,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:R7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="49.42578125" customWidth="1"/>
@@ -561,12 +704,19 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="0.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="16" width="8.85546875" customWidth="1"/>
+    <col min="7" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="16" width="8.85546875" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" customWidth="1"/>
+    <col min="19" max="23" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="20.25" customHeight="1">
+    <row r="2" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -577,196 +727,291 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:18" ht="15.75">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="17" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="22" t="s">
         <v>4</v>
       </c>
+      <c r="S3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="2:18" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B4" s="16"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4">
+    <row r="4" spans="2:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+    </row>
+    <row r="5" spans="2:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I5" s="4">
         <v>2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J5" s="4">
         <v>3</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K5" s="4">
         <v>4</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L5" s="4">
         <v>5</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M5" s="4">
         <v>6</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N5" s="4">
         <v>7</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O5" s="4">
         <v>8</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P5" s="4">
         <v>9</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="16"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
     </row>
-    <row r="5" spans="2:18" ht="27" customHeight="1">
-      <c r="B5" s="13" t="e">
+    <row r="6" spans="2:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="21"/>
     </row>
-    <row r="6" spans="2:18" ht="19.5" customHeight="1">
-      <c r="B6" s="12" t="e">
+    <row r="7" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="e">
         <f>range1_RecipeName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="7" t="e">
+      <c r="C7" s="7" t="e">
         <f>range1_OutNetto</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="5" t="e">
+      <c r="D7" s="5" t="e">
         <f>range1_FormationOnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="6" t="e">
+      <c r="E7" s="6" t="e">
         <f>range1_TaraName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="5" t="e">
+      <c r="F7" s="5" t="e">
         <f>range1_OsadkaOnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="G6" s="5" t="e">
-        <f>IF(E6="0",F6,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="5" t="e">
-        <f>IF(E6="1",F6,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I6" s="5" t="e">
-        <f>IF(E6="2",F6,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J6" s="5" t="e">
-        <f>IF(E6="3",F6,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K6" s="5" t="e">
-        <f>IF(E6="4",F6,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L6" s="5" t="e">
-        <f>IF(E6="5",F6,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M6" s="5" t="e">
-        <f>IF(E6="6",F6,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N6" s="5" t="e">
-        <f>IF(E6="7",F6,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O6" s="5" t="e">
-        <f>IF(E6="8",F6,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P6" s="5" t="e">
-        <f>IF(E6="9",F6,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q6" s="5" t="e">
-        <f>IF(D6&gt;0,F6-D6,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R6" s="7" t="e">
+      <c r="G7" s="5" t="e">
+        <f>IF(E7="0",F7,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H7" s="5" t="e">
+        <f>IF(E7="1",F7,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" s="5" t="e">
+        <f>IF(E7="2",F7,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" s="5" t="e">
+        <f>IF(E7="3",F7,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K7" s="5" t="e">
+        <f>IF(E7="4",F7,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L7" s="5" t="e">
+        <f>IF(E7="5",F7,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M7" s="5" t="e">
+        <f>IF(E7="6",F7,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" s="5" t="e">
+        <f>IF(E7="7",F7,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O7" s="5" t="e">
+        <f>IF(E7="8",F7,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P7" s="5" t="e">
+        <f>IF(E7="9",F7,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q7" s="5" t="e">
+        <f>IF(D7&gt;0,F7-D7,"")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R7" s="7" t="e">
         <f>range1_TimeNorm</f>
         <v>#NAME?</v>
       </c>
+      <c r="S7" s="18" t="e" cm="1">
+        <f t="array" ref="S7">range1_OsadkaOnDate</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T7" s="17" t="e">
+        <f>U7-S7</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U7" s="17" t="e" cm="1">
+        <f t="array" ref="U7">range1_CookingOnDate</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V7" s="17" t="e">
+        <f>W7-U7</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W7" s="17" t="e" cm="1">
+        <f t="array" ref="W7">range1_MoveOnSGPOnDate</f>
+        <v>#NAME?</v>
+      </c>
     </row>
-    <row r="7" spans="2:18" ht="20.25" customHeight="1">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="8"/>
+    <row r="8" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
+  <mergeCells count="12">
+    <mergeCell ref="B6:W6"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="G3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="W3:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/SP_Sklad/TempLate/SyringeReport(48).xlsx
+++ b/SP_Sklad/TempLate/SyringeReport(48).xlsx
@@ -1,46 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839C3728-1375-464B-A51C-23447E25028A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Аркуш1!$A$6:$R$9</definedName>
-    <definedName name="range1">Аркуш1!$A$7:$R$8</definedName>
+    <definedName name="MatGroup">Аркуш1!$A$6:$P$9</definedName>
+    <definedName name="range1">Аркуш1!$A$7:$P$8</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -55,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Часовий зріз виробництва за</t>
   </si>
@@ -63,59 +53,65 @@
     <t>ТМЦ</t>
   </si>
   <si>
+    <t>Час формовки</t>
+  </si>
+  <si>
+    <t>Шприци</t>
+  </si>
+  <si>
+    <t>REX</t>
+  </si>
+  <si>
+    <t>ХАНДМАН 200</t>
+  </si>
+  <si>
+    <t>компо максі 3000</t>
+  </si>
+  <si>
+    <t>ХАНДМАН 300</t>
+  </si>
+  <si>
+    <t>Вемаг</t>
+  </si>
+  <si>
+    <t>Прихід на осадку</t>
+  </si>
+  <si>
+    <t>час осадки</t>
+  </si>
+  <si>
+    <t>прихід на термічку</t>
+  </si>
+  <si>
+    <t>час термічки</t>
+  </si>
+  <si>
+    <t>Прихід на СГП</t>
+  </si>
+  <si>
+    <t>Час зважування фаршу</t>
+  </si>
+  <si>
     <t>Фарш на формовку</t>
   </si>
   <si>
-    <t>Час формовки</t>
-  </si>
-  <si>
-    <t>Норма</t>
-  </si>
-  <si>
-    <t>Шприци</t>
-  </si>
-  <si>
-    <t>Фаршу всього(сума нето техпроцесу фарш на формовку)</t>
-  </si>
-  <si>
-    <t>REX</t>
-  </si>
-  <si>
-    <t>ХАНДМАН 200</t>
-  </si>
-  <si>
-    <t>компо максі 3000</t>
-  </si>
-  <si>
-    <t>ХАНДМАН 300</t>
-  </si>
-  <si>
-    <t>Вемаг</t>
-  </si>
-  <si>
-    <t>Прихід на осадку</t>
-  </si>
-  <si>
-    <t>час осадки</t>
-  </si>
-  <si>
-    <t>прихід на термічку</t>
-  </si>
-  <si>
-    <t>час термічки</t>
-  </si>
-  <si>
-    <t>Прихід на СГП</t>
+    <t>Час повного циклу</t>
+  </si>
+  <si>
+    <t>Інтенсивка</t>
+  </si>
+  <si>
+    <t>час інтенсивки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -335,11 +331,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -385,6 +394,13 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -396,9 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -684,19 +697,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="49.42578125" customWidth="1"/>
@@ -710,13 +723,14 @@
     <col min="12" max="12" width="8.5703125" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="16" width="8.85546875" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="23" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="23" width="11.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="20.25" customHeight="1">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -727,95 +741,101 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="2:24" ht="15.75" customHeight="1">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>6</v>
+      <c r="C3" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="G3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Q3" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="S3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="U3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" s="23" t="s">
+      <c r="X3" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="26"/>
+    <row r="4" spans="2:24" ht="30.75" customHeight="1">
+      <c r="B4" s="27"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="23"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="14"/>
       <c r="H4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="M4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="14"/>
+      <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
-      <c r="R4" s="22"/>
+      <c r="R4" s="23"/>
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
       <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
     </row>
-    <row r="5" spans="2:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="27"/>
+    <row r="5" spans="2:24" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="27"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="23"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -846,45 +866,44 @@
       <c r="O5" s="4">
         <v>8</v>
       </c>
-      <c r="P5" s="4">
-        <v>9</v>
-      </c>
+      <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
-      <c r="R5" s="22"/>
+      <c r="R5" s="23"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
       <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
     </row>
-    <row r="6" spans="2:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="e">
+    <row r="6" spans="2:24" ht="27" customHeight="1">
+      <c r="B6" s="24" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="21"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="26"/>
     </row>
-    <row r="7" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" ht="19.5" customHeight="1">
       <c r="B7" s="12" t="e">
         <f>range1_RecipeName</f>
         <v>#NAME?</v>
@@ -942,39 +961,43 @@
         <v>#NAME?</v>
       </c>
       <c r="P7" s="5" t="e">
-        <f>IF(E7="9",F7,"")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q7" s="5" t="e">
         <f>IF(D7&gt;0,F7-D7,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="R7" s="7" t="e">
-        <f>range1_TimeNorm</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S7" s="18" t="e" cm="1">
-        <f t="array" ref="S7">range1_OsadkaOnDate</f>
+      <c r="Q7" s="18" t="e" cm="1">
+        <f t="array" ref="Q7">range1_OsadkaOnDate</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R7" s="17" t="e">
+        <f>S7-Q7</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S7" s="17" t="e" cm="1">
+        <f t="array" ref="S7">range1_CookingOnDate</f>
         <v>#NAME?</v>
       </c>
       <c r="T7" s="17" t="e">
-        <f>U7-S7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U7" s="17" t="e" cm="1">
-        <f t="array" ref="U7">range1_CookingOnDate</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V7" s="17" t="e">
+        <f>W7-S7</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U7" s="17" t="e">
+        <f>range1_IntensiveOnDate</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V7" s="19" t="e">
         <f>W7-U7</f>
         <v>#NAME?</v>
       </c>
-      <c r="W7" s="17" t="e" cm="1">
+      <c r="W7" s="19" t="e" cm="1">
         <f t="array" ref="W7">range1_MoveOnSGPOnDate</f>
         <v>#NAME?</v>
       </c>
+      <c r="X7" s="21" t="e">
+        <f>W7-D7</f>
+        <v>#NAME?</v>
+      </c>
     </row>
-    <row r="8" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" ht="20.25" customHeight="1">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -989,29 +1012,32 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="X3:X5"/>
     <mergeCell ref="B6:W6"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="C3:C5"/>
     <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="R3:R5"/>
-    <mergeCell ref="C3:C5"/>
     <mergeCell ref="S3:S5"/>
     <mergeCell ref="T3:T5"/>
+    <mergeCell ref="W3:W5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="V3:V5"/>
-    <mergeCell ref="W3:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
